--- a/statistics/HistoricalDistanceData/historical_distance/Q473893-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q473893-en.xlsx
@@ -31,22 +31,22 @@
     <t>uri</t>
   </si>
   <si>
+    <t>PM Lee sends condolences to Belgium</t>
+  </si>
+  <si>
     <t>Speaker Solvita Āboltiņa conveys condolences to Belgium</t>
   </si>
   <si>
-    <t>PM Lee sends condolences to Belgium</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>http://www.channelnewsasia.com/stories/singaporelocalnews/view/1171492/1/.html</t>
+  </si>
+  <si>
     <t>http://www.saeima.lv/en/news/saeima-news/19155-speaker-solvita-aboltina-conveys-condolences-to-belgium</t>
-  </si>
-  <si>
-    <t>http://www.channelnewsasia.com/stories/singaporelocalnews/view/1171492/1/.html</t>
   </si>
 </sst>
 </file>
